--- a/public/assets/excel/orderwing/domeatoz/2023-11-11_2024-01-10.xlsx
+++ b/public/assets/excel/orderwing/domeatoz/2023-11-11_2024-01-10.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>상태</t>
   </si>
@@ -113,82 +113,46 @@
     <t>2024-01-09</t>
   </si>
   <si>
-    <t>여진샵</t>
-  </si>
-  <si>
-    <t>070-7954-7512</t>
-  </si>
-  <si>
-    <t>맹혜정</t>
-  </si>
-  <si>
-    <t>010-8935-4568</t>
-  </si>
-  <si>
-    <t>18340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">경기 화성시 배양북길32번길 18-12 (배양동) 유신소방 1층 </t>
-  </si>
-  <si>
-    <t>AZ01964001</t>
+    <t>사니유니</t>
+  </si>
+  <si>
+    <t>010-2049-2820</t>
+  </si>
+  <si>
+    <t>김동준</t>
+  </si>
+  <si>
+    <t>010-6226-4454</t>
+  </si>
+  <si>
+    <t>05060</t>
+  </si>
+  <si>
+    <t>서울특별시 광진구 뚝섬로57가길 55-1(자양동, 진연빌) 401호</t>
+  </si>
+  <si>
+    <t>AZ01967440</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>부동전 0132701329 TYPE 1</t>
-  </si>
-  <si>
-    <t>15,689</t>
+    <t>JS 무타공 욕실일자선반 50cm 그래픽 블랙 초</t>
+  </si>
+  <si>
+    <t>6,578</t>
   </si>
   <si>
     <t>3,500</t>
   </si>
   <si>
-    <t>19,189</t>
-  </si>
-  <si>
-    <t>1704843785031WMO7POZI</t>
+    <t>10,078</t>
+  </si>
+  <si>
+    <t>1704842957085BDVMMHH1</t>
   </si>
   <si>
     <t>선불</t>
-  </si>
-  <si>
-    <t>USY7O</t>
-  </si>
-  <si>
-    <t>사니유니</t>
-  </si>
-  <si>
-    <t>010-2049-2820</t>
-  </si>
-  <si>
-    <t>김동준</t>
-  </si>
-  <si>
-    <t>010-6226-4454</t>
-  </si>
-  <si>
-    <t>05060</t>
-  </si>
-  <si>
-    <t>서울특별시 광진구 뚝섬로57가길 55-1(자양동, 진연빌) 401호</t>
-  </si>
-  <si>
-    <t>AZ01967440</t>
-  </si>
-  <si>
-    <t>JS 무타공 욕실일자선반 50cm 그래픽 블랙 초</t>
-  </si>
-  <si>
-    <t>6,578</t>
-  </si>
-  <si>
-    <t>10,078</t>
-  </si>
-  <si>
-    <t>1704842957085BDVMMHH1</t>
   </si>
   <si>
     <t>HOPIM</t>
@@ -635,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -908,7 +872,7 @@
         <v>41</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="s">
         <v>57</v>
@@ -997,7 +961,7 @@
         <v>41</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="s">
         <v>69</v>
@@ -1036,101 +1000,12 @@
         <v>41</v>
       </c>
       <c r="AC4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s">
-        <v>82</v>
-      </c>
-      <c r="T5" t="s">
-        <v>83</v>
-      </c>
-      <c r="U5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AF5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AF4"/>
   </ignoredErrors>
 </worksheet>
 </file>